--- a/opinions/parsed_wiki_data/2015.xlsx
+++ b/opinions/parsed_wiki_data/2015.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,27 +547,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -592,42 +592,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -647,37 +647,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -687,27 +687,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -717,17 +717,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -737,47 +737,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -812,22 +812,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -897,27 +897,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -987,17 +987,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1037,47 +1037,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1102,32 +1102,32 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1137,17 +1137,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1157,27 +1157,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1187,32 +1187,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1247,22 +1247,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1287,47 +1287,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1337,47 +1337,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1412,22 +1412,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1447,27 +1447,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1497,27 +1497,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1547,22 +1547,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1597,37 +1597,37 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1647,22 +1647,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1697,37 +1697,37 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1757,27 +1757,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>partjoinconcurrence</t>
+          <t>concurrence partjoinconcurrence dissent joinconcurrence joindissent</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1807,27 +1807,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1847,37 +1847,37 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1897,37 +1897,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joinplurality</t>
+          <t>joinplurality plurality</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>joinplurality</t>
+          <t>joinplurality plurality</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1967,17 +1967,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>joinplurality</t>
+          <t>joinplurality plurality</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1997,12 +1997,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence partjoinconcurrence joinconcurrence</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2012,22 +2012,22 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2047,22 +2047,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2097,37 +2097,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2157,27 +2157,27 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2247,17 +2247,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2267,17 +2267,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>concurrencewithoutopinion</t>
+          <t>concurrence concurrencewithoutopinion</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2302,17 +2302,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2347,12 +2347,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2362,22 +2362,22 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2417,17 +2417,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2467,17 +2467,17 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2497,22 +2497,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2547,12 +2547,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2562,22 +2562,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2622,12 +2622,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2657,17 +2657,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2747,37 +2747,37 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2797,27 +2797,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2897,12 +2897,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2912,22 +2912,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2947,27 +2947,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3047,17 +3047,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3067,17 +3067,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3147,37 +3147,37 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3197,37 +3197,37 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3257,27 +3257,27 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3297,27 +3297,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3347,32 +3347,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3402,32 +3402,32 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3457,17 +3457,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3497,17 +3497,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3547,37 +3547,37 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3607,12 +3607,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3647,12 +3647,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3662,22 +3662,22 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3707,27 +3707,27 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3757,27 +3757,27 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3797,32 +3797,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3857,27 +3857,27 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3907,27 +3907,27 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3947,17 +3947,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3967,17 +3967,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4007,12 +4007,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4022,12 +4022,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4047,22 +4047,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4102,27 +4102,27 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4147,22 +4147,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>concurrencedissent1</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4172,12 +4172,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>concurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4197,32 +4197,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4247,37 +4247,37 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4297,37 +4297,37 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4347,37 +4347,37 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4397,17 +4397,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4417,17 +4417,17 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2015.xlsx
+++ b/opinions/parsed_wiki_data/2015.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,27 +547,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -592,42 +592,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -647,37 +647,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -687,17 +687,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -737,47 +737,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -812,22 +812,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -897,27 +897,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1037,47 +1037,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1137,17 +1137,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1157,27 +1157,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1187,32 +1187,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1257,12 +1257,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1287,47 +1287,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1337,47 +1337,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1412,12 +1412,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1447,17 +1447,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1497,27 +1497,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1557,12 +1557,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1597,37 +1597,37 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1657,12 +1657,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1697,37 +1697,37 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1757,27 +1757,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>concurrence partjoinconcurrence dissent joinconcurrence joindissent</t>
+          <t>concurrence dissent joinconcurrence joindissent partjoinconcurrence</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1807,27 +1807,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1847,37 +1847,37 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1897,37 +1897,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1997,12 +1997,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>concurrence partjoinconcurrence joinconcurrence</t>
+          <t>concurrence joinconcurrence partjoinconcurrence</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2047,22 +2047,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2097,37 +2097,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2157,27 +2157,27 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2347,12 +2347,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2362,12 +2362,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2417,17 +2417,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2472,12 +2472,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2547,12 +2547,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2562,22 +2562,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2657,17 +2657,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2707,17 +2707,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2747,37 +2747,37 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2812,12 +2812,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2897,12 +2897,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2912,22 +2912,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3022,12 +3022,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3047,17 +3047,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3067,17 +3067,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3162,22 +3162,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3197,37 +3197,37 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3272,12 +3272,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3297,27 +3297,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3407,12 +3407,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3457,17 +3457,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3547,37 +3547,37 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3647,12 +3647,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3662,22 +3662,22 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3707,27 +3707,27 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3757,27 +3757,27 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3797,32 +3797,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3857,12 +3857,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3907,17 +3907,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3947,17 +3947,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3967,17 +3967,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4007,12 +4007,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4022,12 +4022,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4047,22 +4047,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -4107,12 +4107,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4147,22 +4147,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4172,12 +4172,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4247,37 +4247,37 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4297,37 +4297,37 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4347,37 +4347,37 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4422,12 +4422,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
